--- a/leave/src/main/resources/TestData/CarryForward/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/CarryForward/CarryForward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project_sikhar\leave\src\main\resources\TestData\CarryForward\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13762AE8-26A7-4C33-9C3E-63127AFF35E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAC6C19-0AC6-4E65-8E1C-B8E3679005CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4257,8 +4257,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D411" sqref="D411"/>
+    <sheetView tabSelected="1" topLeftCell="A462" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K462" sqref="K462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10413,7 +10413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>24</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>193</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>194</v>
@@ -10495,7 +10495,7 @@
         <v>196</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>197</v>
@@ -10569,7 +10569,7 @@
         <v>198</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>199</v>
@@ -10643,7 +10643,7 @@
         <v>200</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>201</v>
@@ -10857,7 +10857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>24</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>206</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>207</v>
@@ -10931,7 +10931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>24</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>208</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>209</v>
@@ -11005,7 +11005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>24</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>210</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>211</v>
@@ -11079,7 +11079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>24</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>212</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>213</v>
@@ -11153,7 +11153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="132" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>24</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>214</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>215</v>
@@ -11235,7 +11235,7 @@
         <v>216</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>217</v>
@@ -11309,7 +11309,7 @@
         <v>218</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>219</v>
@@ -11383,7 +11383,7 @@
         <v>220</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>221</v>
@@ -11457,7 +11457,7 @@
         <v>222</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>223</v>
@@ -11531,7 +11531,7 @@
         <v>224</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>225</v>
@@ -11605,7 +11605,7 @@
         <v>226</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>227</v>
@@ -11679,7 +11679,7 @@
         <v>228</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>229</v>
@@ -11753,7 +11753,7 @@
         <v>230</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>231</v>
@@ -11827,7 +11827,7 @@
         <v>232</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>233</v>
@@ -11901,7 +11901,7 @@
         <v>234</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>235</v>
@@ -11975,7 +11975,7 @@
         <v>236</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>237</v>
@@ -12049,7 +12049,7 @@
         <v>238</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>239</v>
@@ -12123,7 +12123,7 @@
         <v>240</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>241</v>
@@ -12197,7 +12197,7 @@
         <v>242</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>243</v>
@@ -12271,7 +12271,7 @@
         <v>244</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>245</v>
@@ -13447,7 +13447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="132" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>24</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>276</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>277</v>
@@ -13529,7 +13529,7 @@
         <v>278</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>279</v>
@@ -13603,7 +13603,7 @@
         <v>280</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>281</v>
@@ -13677,7 +13677,7 @@
         <v>282</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>283</v>
@@ -13743,7 +13743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>24</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>284</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>285</v>
@@ -13817,7 +13817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>24</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>286</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>287</v>
@@ -13891,7 +13891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>24</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>288</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>289</v>
@@ -13965,7 +13965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>24</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>290</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>291</v>
@@ -14039,7 +14039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>24</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>292</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>293</v>
@@ -14113,7 +14113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>24</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>294</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>295</v>
@@ -14187,7 +14187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>24</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>296</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>297</v>
@@ -14269,7 +14269,7 @@
         <v>298</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>299</v>
@@ -14343,7 +14343,7 @@
         <v>300</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>301</v>
@@ -14417,7 +14417,7 @@
         <v>302</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>303</v>
@@ -14491,7 +14491,7 @@
         <v>304</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>305</v>
@@ -14565,7 +14565,7 @@
         <v>306</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>307</v>
@@ -14639,7 +14639,7 @@
         <v>308</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>309</v>
@@ -14713,7 +14713,7 @@
         <v>310</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>311</v>
@@ -14787,7 +14787,7 @@
         <v>312</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>313</v>
@@ -14861,7 +14861,7 @@
         <v>314</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>315</v>
@@ -14935,7 +14935,7 @@
         <v>316</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>317</v>
@@ -15009,7 +15009,7 @@
         <v>318</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>319</v>
@@ -15083,7 +15083,7 @@
         <v>320</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>321</v>
@@ -15157,7 +15157,7 @@
         <v>322</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>323</v>
@@ -15231,7 +15231,7 @@
         <v>324</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>325</v>
@@ -15305,7 +15305,7 @@
         <v>326</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>327</v>
@@ -15371,7 +15371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>24</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>328</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>329</v>
@@ -15445,7 +15445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>24</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>330</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>331</v>
@@ -15519,7 +15519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>24</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>332</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>333</v>
@@ -15593,7 +15593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>24</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>334</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>335</v>
@@ -15667,7 +15667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>24</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>336</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>337</v>
@@ -15741,7 +15741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>24</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>338</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>339</v>
@@ -15815,7 +15815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>24</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>340</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>341</v>
@@ -15889,7 +15889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>24</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>342</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>343</v>
@@ -15963,7 +15963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>24</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>344</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>345</v>
@@ -16037,7 +16037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>24</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>346</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>347</v>
@@ -16111,7 +16111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>24</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>348</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>349</v>
@@ -16185,7 +16185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>24</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>350</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>351</v>
@@ -16259,7 +16259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>24</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>352</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>353</v>
@@ -16333,7 +16333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>24</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>354</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>355</v>
@@ -16407,7 +16407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>24</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>356</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>357</v>
@@ -19515,7 +19515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>24</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>440</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>441</v>
@@ -19597,7 +19597,7 @@
         <v>442</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>443</v>
@@ -19671,7 +19671,7 @@
         <v>444</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>445</v>
@@ -19745,7 +19745,7 @@
         <v>446</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>447</v>
@@ -19959,7 +19959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>24</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>452</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>453</v>
@@ -20033,7 +20033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>24</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>454</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>455</v>
@@ -20107,7 +20107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>24</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>456</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>457</v>
@@ -20181,7 +20181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>24</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>458</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>459</v>
@@ -20255,7 +20255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" ht="132" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>24</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v>460</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>461</v>
@@ -20337,7 +20337,7 @@
         <v>462</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>463</v>
@@ -20411,7 +20411,7 @@
         <v>464</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>465</v>
@@ -20485,7 +20485,7 @@
         <v>466</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>467</v>
@@ -20559,7 +20559,7 @@
         <v>468</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>469</v>
@@ -20633,7 +20633,7 @@
         <v>470</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>471</v>
@@ -20707,7 +20707,7 @@
         <v>472</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>473</v>
@@ -20781,7 +20781,7 @@
         <v>474</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>475</v>
@@ -20855,7 +20855,7 @@
         <v>476</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>477</v>
@@ -20929,7 +20929,7 @@
         <v>478</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>479</v>
@@ -21003,7 +21003,7 @@
         <v>480</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>481</v>
@@ -21077,7 +21077,7 @@
         <v>482</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>483</v>
@@ -21151,7 +21151,7 @@
         <v>484</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>485</v>
@@ -21225,7 +21225,7 @@
         <v>486</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>487</v>
@@ -21299,7 +21299,7 @@
         <v>488</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>489</v>
@@ -21373,7 +21373,7 @@
         <v>490</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>491</v>
@@ -28617,7 +28617,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>24</v>
       </c>
@@ -28625,7 +28625,7 @@
         <v>193</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>606</v>
@@ -28699,7 +28699,7 @@
         <v>196</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>607</v>
@@ -28773,7 +28773,7 @@
         <v>198</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>608</v>
@@ -28847,7 +28847,7 @@
         <v>200</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>609</v>
@@ -29061,7 +29061,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:24" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>24</v>
       </c>
@@ -29069,7 +29069,7 @@
         <v>206</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>612</v>
@@ -29135,7 +29135,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>24</v>
       </c>
@@ -29143,7 +29143,7 @@
         <v>208</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>613</v>
@@ -29209,7 +29209,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>24</v>
       </c>
@@ -29217,7 +29217,7 @@
         <v>210</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>614</v>
@@ -29283,7 +29283,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>24</v>
       </c>
@@ -29291,7 +29291,7 @@
         <v>212</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>615</v>
@@ -29357,7 +29357,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" ht="132" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>24</v>
       </c>
@@ -29365,7 +29365,7 @@
         <v>214</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>616</v>
@@ -29439,7 +29439,7 @@
         <v>216</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>617</v>
@@ -29513,7 +29513,7 @@
         <v>218</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>618</v>
@@ -29587,7 +29587,7 @@
         <v>220</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>619</v>
@@ -29661,7 +29661,7 @@
         <v>222</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>620</v>
@@ -29735,7 +29735,7 @@
         <v>224</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>621</v>
@@ -29809,7 +29809,7 @@
         <v>226</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>622</v>
@@ -29883,7 +29883,7 @@
         <v>228</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>623</v>
@@ -29957,7 +29957,7 @@
         <v>230</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>624</v>
@@ -30031,7 +30031,7 @@
         <v>232</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>625</v>
@@ -30105,7 +30105,7 @@
         <v>234</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>626</v>
@@ -30179,7 +30179,7 @@
         <v>236</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>627</v>
@@ -30253,7 +30253,7 @@
         <v>238</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>628</v>
@@ -30327,7 +30327,7 @@
         <v>240</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>629</v>
@@ -30401,7 +30401,7 @@
         <v>242</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D354" s="4" t="s">
         <v>630</v>
@@ -30475,7 +30475,7 @@
         <v>244</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>631</v>
@@ -31215,7 +31215,7 @@
         <v>264</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>641</v>
@@ -31289,7 +31289,7 @@
         <v>266</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>642</v>
@@ -31363,7 +31363,7 @@
         <v>268</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>643</v>
@@ -31437,7 +31437,7 @@
         <v>270</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>644</v>
@@ -31511,7 +31511,7 @@
         <v>272</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>645</v>
@@ -31585,7 +31585,7 @@
         <v>274</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>646</v>
@@ -31651,7 +31651,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" ht="132" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>24</v>
       </c>
@@ -31659,7 +31659,7 @@
         <v>276</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>647</v>
@@ -31733,7 +31733,7 @@
         <v>278</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>648</v>
@@ -31807,7 +31807,7 @@
         <v>280</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>649</v>
@@ -31881,7 +31881,7 @@
         <v>282</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>650</v>
@@ -31947,7 +31947,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
         <v>24</v>
       </c>
@@ -31955,7 +31955,7 @@
         <v>284</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>653</v>
@@ -32021,7 +32021,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>24</v>
       </c>
@@ -32029,7 +32029,7 @@
         <v>286</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>654</v>
@@ -32095,7 +32095,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
         <v>24</v>
       </c>
@@ -32103,7 +32103,7 @@
         <v>288</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>655</v>
@@ -32169,7 +32169,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:24" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>24</v>
       </c>
@@ -32177,7 +32177,7 @@
         <v>290</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>656</v>
@@ -32243,7 +32243,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
         <v>24</v>
       </c>
@@ -32251,7 +32251,7 @@
         <v>292</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>657</v>
@@ -32317,7 +32317,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>24</v>
       </c>
@@ -32325,7 +32325,7 @@
         <v>294</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>658</v>
@@ -32391,7 +32391,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:24" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
         <v>24</v>
       </c>
@@ -32399,7 +32399,7 @@
         <v>296</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>659</v>
@@ -32473,7 +32473,7 @@
         <v>298</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>660</v>
@@ -32547,7 +32547,7 @@
         <v>300</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>661</v>
@@ -32621,7 +32621,7 @@
         <v>302</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>662</v>
@@ -32695,7 +32695,7 @@
         <v>304</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>663</v>
@@ -32769,7 +32769,7 @@
         <v>306</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>664</v>
@@ -32843,7 +32843,7 @@
         <v>308</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>665</v>
@@ -32917,7 +32917,7 @@
         <v>310</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>666</v>
@@ -32991,7 +32991,7 @@
         <v>312</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>667</v>
@@ -33065,7 +33065,7 @@
         <v>314</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>668</v>
@@ -33139,7 +33139,7 @@
         <v>316</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>669</v>
@@ -33213,7 +33213,7 @@
         <v>318</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>670</v>
@@ -33287,7 +33287,7 @@
         <v>320</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>671</v>
@@ -33361,7 +33361,7 @@
         <v>322</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>672</v>
@@ -33435,7 +33435,7 @@
         <v>324</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>673</v>
@@ -33509,7 +33509,7 @@
         <v>326</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>674</v>
@@ -33575,7 +33575,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:24" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>24</v>
       </c>
@@ -33583,7 +33583,7 @@
         <v>328</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>675</v>
@@ -33649,7 +33649,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>24</v>
       </c>
@@ -33657,7 +33657,7 @@
         <v>330</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>676</v>
@@ -33723,7 +33723,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
         <v>24</v>
       </c>
@@ -33731,7 +33731,7 @@
         <v>332</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>677</v>
@@ -33797,7 +33797,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="400" spans="1:24" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:24" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>24</v>
       </c>
@@ -33805,7 +33805,7 @@
         <v>334</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>678</v>
@@ -33871,7 +33871,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>24</v>
       </c>
@@ -33879,7 +33879,7 @@
         <v>336</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D401" s="4" t="s">
         <v>679</v>
@@ -33945,7 +33945,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:24" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
         <v>24</v>
       </c>
@@ -33953,7 +33953,7 @@
         <v>338</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>680</v>
@@ -34019,7 +34019,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
         <v>24</v>
       </c>
@@ -34027,7 +34027,7 @@
         <v>340</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>681</v>
@@ -34093,7 +34093,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
         <v>24</v>
       </c>
@@ -34101,7 +34101,7 @@
         <v>342</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>682</v>
@@ -34167,7 +34167,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
         <v>24</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>344</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>683</v>
@@ -34241,7 +34241,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>24</v>
       </c>
@@ -34249,7 +34249,7 @@
         <v>346</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>684</v>
@@ -34315,7 +34315,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>24</v>
       </c>
@@ -34323,7 +34323,7 @@
         <v>348</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>685</v>
@@ -34389,7 +34389,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
         <v>24</v>
       </c>
@@ -34397,7 +34397,7 @@
         <v>350</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>686</v>
@@ -34463,7 +34463,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
         <v>24</v>
       </c>
@@ -34471,7 +34471,7 @@
         <v>352</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>687</v>
@@ -34537,7 +34537,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:24" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>24</v>
       </c>
@@ -34545,7 +34545,7 @@
         <v>354</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>688</v>
@@ -34611,7 +34611,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>24</v>
       </c>
@@ -34619,7 +34619,7 @@
         <v>356</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>689</v>
@@ -37719,7 +37719,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:24" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
         <v>24</v>
       </c>
@@ -37727,7 +37727,7 @@
         <v>440</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>731</v>
@@ -37801,7 +37801,7 @@
         <v>442</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>732</v>
@@ -37875,7 +37875,7 @@
         <v>444</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>733</v>
@@ -37949,7 +37949,7 @@
         <v>446</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>734</v>
@@ -38023,7 +38023,7 @@
         <v>448</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>735</v>
@@ -38097,7 +38097,7 @@
         <v>450</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>736</v>
@@ -38163,7 +38163,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:24" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
         <v>24</v>
       </c>
@@ -38171,7 +38171,7 @@
         <v>452</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>737</v>
@@ -38237,7 +38237,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
         <v>24</v>
       </c>
@@ -38245,7 +38245,7 @@
         <v>454</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>738</v>
@@ -38311,7 +38311,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
         <v>24</v>
       </c>
@@ -38319,7 +38319,7 @@
         <v>456</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>739</v>
@@ -38385,7 +38385,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:24" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
         <v>24</v>
       </c>
@@ -38393,7 +38393,7 @@
         <v>458</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>740</v>
@@ -38459,7 +38459,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:24" ht="132" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
         <v>24</v>
       </c>
@@ -38467,7 +38467,7 @@
         <v>460</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>741</v>
@@ -38541,7 +38541,7 @@
         <v>462</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>742</v>
@@ -38615,7 +38615,7 @@
         <v>464</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>743</v>
@@ -38689,7 +38689,7 @@
         <v>466</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>744</v>
@@ -38763,7 +38763,7 @@
         <v>468</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>745</v>
@@ -38837,7 +38837,7 @@
         <v>470</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>746</v>
@@ -38911,7 +38911,7 @@
         <v>472</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>747</v>
@@ -38985,7 +38985,7 @@
         <v>474</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>748</v>
@@ -39059,7 +39059,7 @@
         <v>476</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D471" s="4" t="s">
         <v>749</v>
@@ -39133,7 +39133,7 @@
         <v>478</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>750</v>
@@ -39207,7 +39207,7 @@
         <v>480</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>751</v>
@@ -39281,7 +39281,7 @@
         <v>482</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>752</v>
@@ -39355,7 +39355,7 @@
         <v>484</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>753</v>
@@ -39429,7 +39429,7 @@
         <v>486</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>754</v>
@@ -39503,7 +39503,7 @@
         <v>488</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>755</v>
@@ -39577,7 +39577,7 @@
         <v>490</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>756</v>
@@ -39651,7 +39651,7 @@
         <v>492</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>757</v>
@@ -39725,7 +39725,7 @@
         <v>494</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>758</v>
@@ -39799,7 +39799,7 @@
         <v>496</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>759</v>
@@ -39873,7 +39873,7 @@
         <v>498</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>760</v>
@@ -39947,7 +39947,7 @@
         <v>500</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D483" s="4" t="s">
         <v>761</v>
@@ -40021,7 +40021,7 @@
         <v>502</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D484" s="4" t="s">
         <v>762</v>
@@ -40095,7 +40095,7 @@
         <v>504</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D485" s="4" t="s">
         <v>763</v>
@@ -40169,7 +40169,7 @@
         <v>506</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D486" s="4" t="s">
         <v>764</v>
@@ -40243,7 +40243,7 @@
         <v>508</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D487" s="4" t="s">
         <v>765</v>
@@ -40317,7 +40317,7 @@
         <v>510</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D488" s="4" t="s">
         <v>766</v>
@@ -40391,7 +40391,7 @@
         <v>512</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D489" s="4" t="s">
         <v>767</v>
@@ -40465,7 +40465,7 @@
         <v>514</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>768</v>
@@ -40539,7 +40539,7 @@
         <v>516</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D491" s="4" t="s">
         <v>769</v>
@@ -40613,7 +40613,7 @@
         <v>518</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D492" s="4" t="s">
         <v>770</v>
@@ -40687,7 +40687,7 @@
         <v>520</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D493" s="4" t="s">
         <v>771</v>
@@ -40760,14 +40760,14 @@
         <filter val="Financial Year"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="6">
+    <filterColumn colId="10">
       <filters>
         <filter val="No"/>
       </filters>
     </filterColumn>
     <filterColumn colId="12">
       <filters>
-        <filter val="Yes"/>
+        <filter val="No"/>
       </filters>
     </filterColumn>
   </autoFilter>
